--- a/biology/Zoologie/Îles_Medes/Îles_Medes.xlsx
+++ b/biology/Zoologie/Îles_Medes/Îles_Medes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%8Eles_Medes</t>
+          <t>Îles_Medes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les îles Medes (ou Illes Medes en catalan et Islas Medas en espagnol) forment un archipel de sept îles et quelques îlots inhabités à un peu moins d'un kilomètre de la station balnéaire de L'Estartit, sur la Costa Brava, Catalogne (Espagne) en mer Méditerranée. Les îles font désormais parties du Parc naturel de Montgri, des îles Medes et du Baix Ter.
